--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 1\eclipse-workspace\InstagramAutomation\"/>
     </mc:Choice>
@@ -19,39 +19,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>Person1</t>
-  </si>
-  <si>
-    <t>Siva</t>
-  </si>
-  <si>
-    <t>www.instragram.com/siva</t>
-  </si>
-  <si>
-    <t>Person2</t>
-  </si>
-  <si>
-    <t>abirami</t>
-  </si>
-  <si>
-    <t>www.instragram.com/abirami</t>
-  </si>
-  <si>
-    <t>Person3</t>
-  </si>
-  <si>
-    <t>arthi</t>
-  </si>
-  <si>
-    <t>www.instragram.com/arthi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>post1</t>
+  </si>
+  <si>
+    <t>vijayakumar_bhaskar</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vijayakumar_bhaskar/</t>
+  </si>
+  <si>
+    <t>thamizh.hd</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thamizh.hd/</t>
+  </si>
+  <si>
+    <t>arthi_harikrishnan_34</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/arthi_harikrishnan_34/</t>
+  </si>
+  <si>
+    <t>vidhya_15_06</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vidhya_15_06/</t>
+  </si>
+  <si>
+    <t>nandhini.bhuvi</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nandhini.bhuvi/</t>
+  </si>
+  <si>
+    <t>kwkamalesh</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kwkamalesh/</t>
+  </si>
+  <si>
+    <t>srinath_madd</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/srinath_madd/</t>
+  </si>
+  <si>
+    <t>endless_dream._</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/endless_dream._/</t>
+  </si>
+  <si>
+    <t>anusuya_balakrishnan7</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/anusuya_balakrishnan7/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,16 +394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="66.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -386,35 +417,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,41 +453,83 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>post1</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>https://www.instagram.com/anusuya_balakrishnan7/</t>
+  </si>
+  <si>
+    <t>post2</t>
+  </si>
+  <si>
+    <t>mike_hussain_mh</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mike_hussain_mh/</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -532,6 +541,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>post1</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>https://www.instagram.com/mike_hussain_mh/</t>
+  </si>
+  <si>
+    <t>posthttps://www.instagram.com/p/CwpZdW1h--i/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>vidhya</t>
+  </si>
+  <si>
+    <t>ArtHI H😍</t>
+  </si>
+  <si>
+    <t>@_Brian_Hunt_07🔱🦂</t>
+  </si>
+  <si>
+    <t>vj</t>
+  </si>
+  <si>
+    <t>COBRA🌠</t>
+  </si>
+  <si>
+    <t>Anusuya</t>
+  </si>
+  <si>
+    <t>★ 🎀𝔽𝕝♡𝕨𝕖𝕣 𝕜𝕚𝕟𝕘🎀 ★</t>
+  </si>
+  <si>
+    <t>THAMIZH HD</t>
+  </si>
+  <si>
+    <t>Nandhini Bhuvi</t>
+  </si>
+  <si>
+    <t>posthttps://www.instagram.com/p/CyQd-5rLH9Z/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>Stock Market | Education | Trainer</t>
   </si>
 </sst>
 </file>
@@ -403,14 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="104.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="33.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="66.7109375" collapsed="true"/>
   </cols>
@@ -541,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -555,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -569,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -580,6 +617,188 @@
         <v>21</v>
       </c>
       <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 1\eclipse-workspace\InstagramAutomation\"/>
     </mc:Choice>
@@ -127,7 +127,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,15 +440,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="104.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="1" max="1" width="104.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -760,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -774,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -788,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
